--- a/artfynd/A 2524-2026 artfynd.xlsx
+++ b/artfynd/A 2524-2026 artfynd.xlsx
@@ -680,32 +680,32 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131054138</v>
+        <v>131054136</v>
       </c>
       <c r="B2" t="n">
-        <v>57073</v>
+        <v>57881</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100138</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>660731</v>
+        <v>660622</v>
       </c>
       <c r="R2" t="n">
-        <v>6661229</v>
+        <v>6661065</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,12 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:04</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>2 tuppar</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,32 +787,32 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131054136</v>
+        <v>131054138</v>
       </c>
       <c r="B3" t="n">
-        <v>57881</v>
+        <v>57073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>100138</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -827,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>660622</v>
+        <v>660731</v>
       </c>
       <c r="R3" t="n">
-        <v>6661065</v>
+        <v>6661229</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -862,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -872,7 +867,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>2 tuppar</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 2524-2026 artfynd.xlsx
+++ b/artfynd/A 2524-2026 artfynd.xlsx
@@ -680,32 +680,32 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131054136</v>
+        <v>131054138</v>
       </c>
       <c r="B2" t="n">
-        <v>57881</v>
+        <v>57073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>100138</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>660622</v>
+        <v>660731</v>
       </c>
       <c r="R2" t="n">
-        <v>6661065</v>
+        <v>6661229</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>2 tuppar</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,32 +792,32 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131054138</v>
+        <v>131054136</v>
       </c>
       <c r="B3" t="n">
-        <v>57073</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100138</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>660731</v>
+        <v>660622</v>
       </c>
       <c r="R3" t="n">
-        <v>6661229</v>
+        <v>6661065</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -857,7 +862,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,12 +872,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:04</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>2 tuppar</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 2524-2026 artfynd.xlsx
+++ b/artfynd/A 2524-2026 artfynd.xlsx
@@ -902,7 +902,7 @@
         <v>131054137</v>
       </c>
       <c r="B4" t="n">
-        <v>92032</v>
+        <v>92033</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>131054135</v>
       </c>
       <c r="B5" t="n">
-        <v>92231</v>
+        <v>92232</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/artfynd/A 2524-2026 artfynd.xlsx
+++ b/artfynd/A 2524-2026 artfynd.xlsx
@@ -902,7 +902,7 @@
         <v>131054137</v>
       </c>
       <c r="B4" t="n">
-        <v>92033</v>
+        <v>92034</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>131054135</v>
       </c>
       <c r="B5" t="n">
-        <v>92232</v>
+        <v>92233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/artfynd/A 2524-2026 artfynd.xlsx
+++ b/artfynd/A 2524-2026 artfynd.xlsx
@@ -902,7 +902,7 @@
         <v>131054137</v>
       </c>
       <c r="B4" t="n">
-        <v>92034</v>
+        <v>92037</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>131054135</v>
       </c>
       <c r="B5" t="n">
-        <v>92233</v>
+        <v>92236</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/artfynd/A 2524-2026 artfynd.xlsx
+++ b/artfynd/A 2524-2026 artfynd.xlsx
@@ -902,7 +902,7 @@
         <v>131054137</v>
       </c>
       <c r="B4" t="n">
-        <v>92037</v>
+        <v>92038</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>131054135</v>
       </c>
       <c r="B5" t="n">
-        <v>92236</v>
+        <v>92237</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
